--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elroy/Documents/Malurus-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC841E78-CF86-874A-B95D-4587448EC881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="640" windowWidth="24380" windowHeight="15920" tabRatio="500"/>
+    <workbookView xWindow="960" yWindow="660" windowWidth="27080" windowHeight="16080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -752,9 +753,6 @@
     <t>ANWC80</t>
   </si>
   <si>
-    <t>COLLECTION ID</t>
-  </si>
-  <si>
     <t>SEX</t>
   </si>
   <si>
@@ -1270,12 +1268,15 @@
   <si>
     <t>K6</t>
   </si>
+  <si>
+    <t>RUN ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1418,6 +1419,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1685,14 +1689,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CC120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="17" width="20.83203125" style="7"/>
     <col min="18" max="31" width="12.1640625" style="1" customWidth="1"/>
@@ -1701,120 +1705,120 @@
     <col min="82" max="16384" width="20.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:81" s="21" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>409</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="G1" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>364</v>
-      </c>
       <c r="K1" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>378</v>
-      </c>
       <c r="R1" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="AK1" s="2" t="s">
-        <v>409</v>
-      </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:81">
       <c r="A2" s="7">
         <v>33</v>
       </c>
@@ -1825,22 +1829,22 @@
         <v>68</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H2" s="12">
         <v>34626</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J2" s="10">
         <v>1994</v>
@@ -1852,7 +1856,7 @@
         <v>143.55109999999999</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N2" s="10">
         <v>0.24784900000000001</v>
@@ -1927,7 +1931,7 @@
         <v>0.85613349999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:81">
       <c r="A3" s="7">
         <v>44</v>
       </c>
@@ -1938,22 +1942,22 @@
         <v>90</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H3" s="12">
         <v>40127</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J3" s="10">
         <v>2009</v>
@@ -1965,7 +1969,7 @@
         <v>149.84639999999999</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N3" s="10">
         <v>0.109441</v>
@@ -2040,7 +2044,7 @@
         <v>4.0641369999999999E-9</v>
       </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:81">
       <c r="A4" s="7">
         <v>55</v>
       </c>
@@ -2051,22 +2055,22 @@
         <v>112</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H4" s="12">
         <v>35717</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J4" s="10">
         <v>1997</v>
@@ -2078,7 +2082,7 @@
         <v>147.55500000000001</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N4" s="10">
         <v>0.15491099999999999</v>
@@ -2153,7 +2157,7 @@
         <v>4.2259859999999998E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:81">
       <c r="A5" s="7">
         <v>63</v>
       </c>
@@ -2164,22 +2168,22 @@
         <v>128</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H5" s="12">
         <v>40127</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J5" s="10">
         <v>2009</v>
@@ -2191,7 +2195,7 @@
         <v>149.84639999999999</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N5" s="10">
         <v>0.10109899999999999</v>
@@ -2266,7 +2270,7 @@
         <v>1.5685920000000001E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:81">
       <c r="A6" s="7">
         <v>68</v>
       </c>
@@ -2277,22 +2281,22 @@
         <v>138</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H6" s="12">
         <v>35718</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J6" s="10">
         <v>1997</v>
@@ -2304,7 +2308,7 @@
         <v>145.76060000000001</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N6" s="10">
         <v>0.11920600000000001</v>
@@ -2379,7 +2383,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="7" spans="1:81" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:81" s="15" customFormat="1">
       <c r="A7" s="7">
         <v>69</v>
       </c>
@@ -2390,22 +2394,22 @@
         <v>140</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H7" s="12">
         <v>35721</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J7" s="10">
         <v>1997</v>
@@ -2417,7 +2421,7 @@
         <v>141.29419999999999</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N7" s="10">
         <v>6.5705299999999994E-2</v>
@@ -2536,7 +2540,7 @@
       <c r="CB7" s="21"/>
       <c r="CC7" s="21"/>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:81">
       <c r="A8" s="7">
         <v>71</v>
       </c>
@@ -2547,22 +2551,22 @@
         <v>144</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H8" s="12">
         <v>35718</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J8" s="10">
         <v>1997</v>
@@ -2574,7 +2578,7 @@
         <v>145.76060000000001</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N8" s="10">
         <v>4.3020200000000001E-2</v>
@@ -2649,7 +2653,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:81">
       <c r="A9" s="7">
         <v>74</v>
       </c>
@@ -2660,22 +2664,22 @@
         <v>150</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H9" s="12">
         <v>36109</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J9" s="10">
         <v>1998</v>
@@ -2687,7 +2691,7 @@
         <v>147.08500000000001</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N9" s="10">
         <v>0.11543</v>
@@ -2762,7 +2766,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:81">
       <c r="A10" s="7">
         <v>87</v>
       </c>
@@ -2773,22 +2777,22 @@
         <v>176</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H10" s="12">
         <v>35722</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J10" s="10">
         <v>1997</v>
@@ -2800,7 +2804,7 @@
         <v>142.2208</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N10" s="10">
         <v>7.4772900000000003E-2</v>
@@ -2875,7 +2879,7 @@
         <v>5.5393650000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:81">
       <c r="A11" s="7">
         <v>100</v>
       </c>
@@ -2886,22 +2890,22 @@
         <v>202</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H11" s="12">
         <v>36134</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J11" s="10">
         <v>1998</v>
@@ -2913,7 +2917,7 @@
         <v>144.71969999999999</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N11" s="10">
         <v>1.71211E-2</v>
@@ -2988,7 +2992,7 @@
         <v>0.79968499999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:81">
       <c r="A12" s="7">
         <v>36</v>
       </c>
@@ -2999,22 +3003,22 @@
         <v>74</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H12" s="12">
         <v>40008</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J12" s="10">
         <v>2009</v>
@@ -3026,7 +3030,7 @@
         <v>134.19200000000001</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N12" s="10">
         <v>3.85292E-2</v>
@@ -3101,7 +3105,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:81">
       <c r="A13" s="7">
         <v>45</v>
       </c>
@@ -3112,22 +3116,22 @@
         <v>92</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H13" s="12">
         <v>42287</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J13" s="10">
         <v>2015</v>
@@ -3139,7 +3143,7 @@
         <v>132.41900000000001</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N13" s="10">
         <v>5.9011099999999997E-2</v>
@@ -3214,7 +3218,7 @@
         <v>0.39626689999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:81">
       <c r="A14" s="7">
         <v>60</v>
       </c>
@@ -3225,22 +3229,22 @@
         <v>122</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H14" s="12">
         <v>39997</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J14" s="10">
         <v>2009</v>
@@ -3252,7 +3256,7 @@
         <v>136.41900000000001</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N14" s="10">
         <v>9.7443399999999999E-2</v>
@@ -3327,7 +3331,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:81">
       <c r="A15" s="7">
         <v>66</v>
       </c>
@@ -3338,22 +3342,22 @@
         <v>134</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H15" s="12">
         <v>37378</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J15" s="10">
         <v>2002</v>
@@ -3365,7 +3369,7 @@
         <v>133.11500000000001</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N15" s="10">
         <v>0.115538</v>
@@ -3440,7 +3444,7 @@
         <v>0.47538029999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:81">
       <c r="A16" s="7">
         <v>77</v>
       </c>
@@ -3451,22 +3455,22 @@
         <v>156</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H16" s="12">
         <v>39997</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J16" s="10">
         <v>2009</v>
@@ -3478,7 +3482,7 @@
         <v>136.41900000000001</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N16" s="10">
         <v>0.16592699999999999</v>
@@ -3553,7 +3557,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:81">
       <c r="A17" s="7">
         <v>80</v>
       </c>
@@ -3564,22 +3568,22 @@
         <v>162</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H17" s="12">
         <v>39997</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J17" s="10">
         <v>2009</v>
@@ -3591,7 +3595,7 @@
         <v>136.54400000000001</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N17" s="10">
         <v>3.7147199999999998E-2</v>
@@ -3666,7 +3670,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:81">
       <c r="A18" s="7">
         <v>82</v>
       </c>
@@ -3677,22 +3681,22 @@
         <v>166</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H18" s="12">
         <v>40011</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J18" s="10">
         <v>2009</v>
@@ -3704,7 +3708,7 @@
         <v>133.72800000000001</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N18" s="10">
         <v>1.69914E-2</v>
@@ -3779,7 +3783,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:81">
       <c r="A19" s="7">
         <v>84</v>
       </c>
@@ -3790,22 +3794,22 @@
         <v>170</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H19" s="12">
         <v>40011</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J19" s="10">
         <v>2009</v>
@@ -3817,7 +3821,7 @@
         <v>133.72800000000001</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N19" s="10">
         <v>0.151362</v>
@@ -3892,7 +3896,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:81">
       <c r="A20" s="7">
         <v>103</v>
       </c>
@@ -3903,22 +3907,22 @@
         <v>208</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H20" s="12">
         <v>40011</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J20" s="10">
         <v>2009</v>
@@ -3930,7 +3934,7 @@
         <v>133.74100000000001</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N20" s="10">
         <v>0.13080700000000001</v>
@@ -4005,7 +4009,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="21" spans="1:81" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:81" s="15" customFormat="1">
       <c r="A21" s="7">
         <v>118</v>
       </c>
@@ -4016,22 +4020,22 @@
         <v>238</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H21" s="12">
         <v>40012</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J21" s="10">
         <v>2009</v>
@@ -4043,7 +4047,7 @@
         <v>133.60900000000001</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N21" s="10">
         <v>3.40605E-2</v>
@@ -4162,7 +4166,7 @@
       <c r="CB21" s="21"/>
       <c r="CC21" s="21"/>
     </row>
-    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:81">
       <c r="A22" s="7">
         <v>46</v>
       </c>
@@ -4173,22 +4177,22 @@
         <v>94</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H22" s="12">
         <v>32434</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J22" s="10">
         <v>1988</v>
@@ -4200,7 +4204,7 @@
         <v>141.13329999999999</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N22" s="10">
         <v>8.4633799999999995E-2</v>
@@ -4275,7 +4279,7 @@
         <v>0.1259015</v>
       </c>
     </row>
-    <row r="23" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:81">
       <c r="A23" s="7">
         <v>62</v>
       </c>
@@ -4286,22 +4290,22 @@
         <v>126</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H23" s="12">
         <v>40482</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J23" s="10">
         <v>2010</v>
@@ -4313,7 +4317,7 @@
         <v>146.96109999999999</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N23" s="10">
         <v>3.2185499999999999E-2</v>
@@ -4388,7 +4392,7 @@
         <v>9.1076649999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:81">
       <c r="A24" s="7">
         <v>65</v>
       </c>
@@ -4399,22 +4403,22 @@
         <v>132</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H24" s="12">
         <v>37169</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J24" s="10">
         <v>2001</v>
@@ -4426,7 +4430,7 @@
         <v>139.75</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N24" s="10">
         <v>0.19339500000000001</v>
@@ -4501,7 +4505,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="25" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:81">
       <c r="A25" s="7">
         <v>75</v>
       </c>
@@ -4512,22 +4516,22 @@
         <v>152</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H25" s="12">
         <v>32435</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J25" s="10">
         <v>1988</v>
@@ -4539,7 +4543,7 @@
         <v>140.83330000000001</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N25" s="10">
         <v>0.10366400000000001</v>
@@ -4614,7 +4618,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="26" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:81">
       <c r="A26" s="7">
         <v>76</v>
       </c>
@@ -4625,22 +4629,22 @@
         <v>154</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H26" s="12">
         <v>40120</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J26" s="10">
         <v>2009</v>
@@ -4652,7 +4656,7 @@
         <v>143.18690000000001</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N26" s="10">
         <v>3.2928899999999997E-2</v>
@@ -4727,7 +4731,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="27" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:81">
       <c r="A27" s="7">
         <v>78</v>
       </c>
@@ -4738,22 +4742,22 @@
         <v>158</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H27" s="12">
         <v>37168</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J27" s="10">
         <v>2001</v>
@@ -4765,7 +4769,7 @@
         <v>139.5917</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N27" s="10">
         <v>0.164405</v>
@@ -4840,7 +4844,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="28" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:81">
       <c r="A28" s="7">
         <v>79</v>
       </c>
@@ -4851,22 +4855,22 @@
         <v>160</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H28" s="12">
         <v>40120</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J28" s="10">
         <v>2009</v>
@@ -4878,7 +4882,7 @@
         <v>143.18690000000001</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N28" s="10">
         <v>5.3786199999999999E-2</v>
@@ -4953,7 +4957,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="29" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:81">
       <c r="A29" s="7">
         <v>107</v>
       </c>
@@ -4964,22 +4968,22 @@
         <v>216</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H29" s="12">
         <v>40483</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J29" s="10">
         <v>2010</v>
@@ -4991,7 +4995,7 @@
         <v>148.13290000000001</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N29" s="10">
         <v>0.123543</v>
@@ -5066,7 +5070,7 @@
         <v>0.14261219999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:81">
       <c r="A30" s="7">
         <v>108</v>
       </c>
@@ -5077,22 +5081,22 @@
         <v>218</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H30" s="12">
         <v>37169</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J30" s="10">
         <v>2001</v>
@@ -5104,7 +5108,7 @@
         <v>139.75</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N30" s="10">
         <v>0.18393399999999999</v>
@@ -5179,7 +5183,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="31" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:81">
       <c r="A31" s="7">
         <v>112</v>
       </c>
@@ -5190,22 +5194,22 @@
         <v>226</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H31" s="12">
         <v>37168</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J31" s="10">
         <v>2001</v>
@@ -5217,7 +5221,7 @@
         <v>139.5917</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N31" s="10">
         <v>3.6048999999999998E-2</v>
@@ -5292,7 +5296,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="32" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:81">
       <c r="A32" s="13">
         <v>6</v>
       </c>
@@ -5303,20 +5307,20 @@
         <v>14</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H32" s="17">
         <v>35690</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J32" s="19">
         <v>1997</v>
@@ -5328,7 +5332,7 @@
         <v>136.96111110000001</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N32" s="19">
         <v>0.169769</v>
@@ -5363,7 +5367,7 @@
       <c r="AJ32" s="15"/>
       <c r="AK32" s="15"/>
     </row>
-    <row r="33" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:81">
       <c r="A33" s="7">
         <v>7</v>
       </c>
@@ -5374,20 +5378,20 @@
         <v>16</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H33" s="12">
         <v>38285</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J33" s="10">
         <v>2004</v>
@@ -5399,7 +5403,7 @@
         <v>139.4794</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N33" s="10">
         <v>0.19053400000000001</v>
@@ -5474,7 +5478,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="34" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:81">
       <c r="A34" s="7">
         <v>8</v>
       </c>
@@ -5485,20 +5489,20 @@
         <v>18</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H34" s="12">
         <v>35694</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J34" s="10">
         <v>1997</v>
@@ -5510,7 +5514,7 @@
         <v>136.52029999999999</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N34" s="10">
         <v>0.14519199999999999</v>
@@ -5585,7 +5589,7 @@
         <v>0.3920768</v>
       </c>
     </row>
-    <row r="35" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:81">
       <c r="A35" s="7">
         <v>9</v>
       </c>
@@ -5596,20 +5600,20 @@
         <v>20</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H35" s="12">
         <v>38282</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J35" s="10">
         <v>2004</v>
@@ -5621,7 +5625,7 @@
         <v>139.4794</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N35" s="10">
         <v>3.0672700000000001E-2</v>
@@ -5696,7 +5700,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="36" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:81">
       <c r="A36" s="7">
         <v>10</v>
       </c>
@@ -5707,20 +5711,20 @@
         <v>22</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H36" s="12">
         <v>41220</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J36" s="10">
         <v>2012</v>
@@ -5732,7 +5736,7 @@
         <v>137.80080000000001</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N36" s="10">
         <v>0.19873499999999999</v>
@@ -5807,7 +5811,7 @@
         <v>0.22714860000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:81">
       <c r="A37" s="7">
         <v>11</v>
       </c>
@@ -5818,20 +5822,20 @@
         <v>24</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H37" s="12">
         <v>39302</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J37" s="10">
         <v>2007</v>
@@ -5843,7 +5847,7 @@
         <v>131.5667</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N37" s="10">
         <v>8.3371299999999995E-2</v>
@@ -5918,7 +5922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:81">
       <c r="A38" s="7">
         <v>13</v>
       </c>
@@ -5929,22 +5933,22 @@
         <v>28</v>
       </c>
       <c r="D38" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>257</v>
-      </c>
       <c r="F38" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H38" s="12">
         <v>38628</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J38" s="10">
         <v>2005</v>
@@ -5956,7 +5960,7 @@
         <v>139.49109999999999</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N38" s="10">
         <v>0.31273499999999999</v>
@@ -6031,7 +6035,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="39" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:81">
       <c r="A39" s="7">
         <v>14</v>
       </c>
@@ -6042,22 +6046,22 @@
         <v>30</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H39" s="12">
         <v>38636</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J39" s="10">
         <v>2005</v>
@@ -6069,7 +6073,7 @@
         <v>139.48609999999999</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N39" s="10">
         <v>0.14934800000000001</v>
@@ -6144,7 +6148,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="40" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:81">
       <c r="A40" s="7">
         <v>15</v>
       </c>
@@ -6155,20 +6159,20 @@
         <v>32</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H40" s="12">
         <v>38299</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J40" s="10">
         <v>2004</v>
@@ -6180,7 +6184,7 @@
         <v>139.4794</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N40" s="10">
         <v>8.1687599999999999E-2</v>
@@ -6255,7 +6259,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="41" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:81">
       <c r="A41" s="7">
         <v>16</v>
       </c>
@@ -6266,20 +6270,20 @@
         <v>34</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H41" s="12">
         <v>38296</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J41" s="10">
         <v>2004</v>
@@ -6291,7 +6295,7 @@
         <v>139.4794</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N41" s="10">
         <v>0.21574099999999999</v>
@@ -6366,7 +6370,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="42" spans="1:81" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:81" s="15" customFormat="1">
       <c r="A42" s="7">
         <v>17</v>
       </c>
@@ -6377,20 +6381,20 @@
         <v>36</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H42" s="12">
         <v>38294</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J42" s="10">
         <v>2004</v>
@@ -6402,7 +6406,7 @@
         <v>139.4794</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N42" s="10">
         <v>0.13425699999999999</v>
@@ -6521,7 +6525,7 @@
       <c r="CB42" s="21"/>
       <c r="CC42" s="21"/>
     </row>
-    <row r="43" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:81">
       <c r="A43" s="7">
         <v>18</v>
       </c>
@@ -6532,20 +6536,20 @@
         <v>38</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H43" s="12">
         <v>38285</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J43" s="10">
         <v>2004</v>
@@ -6557,7 +6561,7 @@
         <v>139.4794</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N43" s="10">
         <v>6.1962299999999998E-2</v>
@@ -6632,7 +6636,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="44" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:81">
       <c r="A44" s="7">
         <v>19</v>
       </c>
@@ -6643,20 +6647,20 @@
         <v>40</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H44" s="9">
         <v>38403</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J44" s="10">
         <v>2005</v>
@@ -6668,7 +6672,7 @@
         <v>133.69560000000001</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N44" s="10">
         <v>9.7893599999999997E-2</v>
@@ -6743,7 +6747,7 @@
         <v>0.99018640000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:81">
       <c r="A45" s="13">
         <v>20</v>
       </c>
@@ -6754,22 +6758,22 @@
         <v>42</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H45" s="17">
         <v>35743</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J45" s="19">
         <v>1997</v>
@@ -6781,7 +6785,7 @@
         <v>138.012</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N45" s="19">
         <v>0.155003</v>
@@ -6816,7 +6820,7 @@
       <c r="AJ45" s="15"/>
       <c r="AK45" s="15"/>
     </row>
-    <row r="46" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:81">
       <c r="A46" s="7">
         <v>21</v>
       </c>
@@ -6827,22 +6831,22 @@
         <v>44</v>
       </c>
       <c r="D46" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>265</v>
-      </c>
       <c r="F46" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H46" s="12">
         <v>36428</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J46" s="10">
         <v>1999</v>
@@ -6854,7 +6858,7 @@
         <v>134.81100000000001</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N46" s="10">
         <v>0.11955300000000001</v>
@@ -6929,7 +6933,7 @@
         <v>0.50249949999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:81">
       <c r="A47" s="7">
         <v>22</v>
       </c>
@@ -6940,22 +6944,22 @@
         <v>46</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H47" s="12">
         <v>36427</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J47" s="10">
         <v>1999</v>
@@ -6967,7 +6971,7 @@
         <v>134.8109</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N47" s="10">
         <v>0.39113300000000001</v>
@@ -7042,7 +7046,7 @@
         <v>0.52036629999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:81">
       <c r="A48" s="7">
         <v>23</v>
       </c>
@@ -7053,22 +7057,22 @@
         <v>48</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H48" s="12">
         <v>36425</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J48" s="10">
         <v>1999</v>
@@ -7080,7 +7084,7 @@
         <v>134.8107</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N48" s="10">
         <v>9.0167300000000006E-2</v>
@@ -7155,7 +7159,7 @@
         <v>0.43242969999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37">
       <c r="A49" s="7">
         <v>24</v>
       </c>
@@ -7166,22 +7170,22 @@
         <v>50</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H49" s="12">
         <v>36424</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J49" s="10">
         <v>1999</v>
@@ -7193,7 +7197,7 @@
         <v>134.81059999999999</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N49" s="10">
         <v>0.12884999999999999</v>
@@ -7268,7 +7272,7 @@
         <v>0.4419689</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37">
       <c r="A50" s="7">
         <v>25</v>
       </c>
@@ -7279,20 +7283,20 @@
         <v>52</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H50" s="12">
         <v>39291</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J50" s="10">
         <v>2007</v>
@@ -7304,7 +7308,7 @@
         <v>130.12029999999999</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N50" s="10">
         <v>1.1069300000000001E-2</v>
@@ -7379,7 +7383,7 @@
         <v>0.79203069999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37">
       <c r="A51" s="7">
         <v>26</v>
       </c>
@@ -7390,22 +7394,22 @@
         <v>54</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H51" s="12">
         <v>36054</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J51" s="10">
         <v>1998</v>
@@ -7417,7 +7421,7 @@
         <v>137.36330000000001</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N51" s="10">
         <v>9.4643400000000003E-2</v>
@@ -7492,7 +7496,7 @@
         <v>0.41673919999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37">
       <c r="A52" s="7">
         <v>27</v>
       </c>
@@ -7503,22 +7507,22 @@
         <v>56</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H52" s="12">
         <v>36049</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J52" s="10">
         <v>1998</v>
@@ -7530,7 +7534,7 @@
         <v>137.6036</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N52" s="10">
         <v>0.104195</v>
@@ -7605,7 +7609,7 @@
         <v>0.40214470000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37">
       <c r="A53" s="7">
         <v>28</v>
       </c>
@@ -7616,22 +7620,22 @@
         <v>58</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H53" s="12">
         <v>35694</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J53" s="10">
         <v>1997</v>
@@ -7643,7 +7647,7 @@
         <v>136.76939999999999</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N53" s="10">
         <v>0.16949500000000001</v>
@@ -7718,7 +7722,7 @@
         <v>0.4009839</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37">
       <c r="A54" s="7">
         <v>29</v>
       </c>
@@ -7729,22 +7733,22 @@
         <v>60</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H54" s="12">
         <v>35691</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J54" s="10">
         <v>1997</v>
@@ -7756,7 +7760,7 @@
         <v>137.0925</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N54" s="10">
         <v>0.17457</v>
@@ -7831,7 +7835,7 @@
         <v>0.384407</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37">
       <c r="A55" s="7">
         <v>31</v>
       </c>
@@ -7842,22 +7846,22 @@
         <v>64</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H55" s="12">
         <v>34630</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J55" s="10">
         <v>1994</v>
@@ -7869,7 +7873,7 @@
         <v>137.19579999999999</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N55" s="10">
         <v>0.13197900000000001</v>
@@ -7944,7 +7948,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37">
       <c r="A56" s="7">
         <v>32</v>
       </c>
@@ -7955,22 +7959,22 @@
         <v>66</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H56" s="12">
         <v>34629</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J56" s="10">
         <v>1994</v>
@@ -7982,7 +7986,7 @@
         <v>137.4006</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N56" s="10">
         <v>0.15339800000000001</v>
@@ -8057,7 +8061,7 @@
         <v>1.065405E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37">
       <c r="A57" s="7">
         <v>34</v>
       </c>
@@ -8068,22 +8072,22 @@
         <v>70</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H57" s="12">
         <v>36049</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J57" s="10">
         <v>1998</v>
@@ -8095,7 +8099,7 @@
         <v>137.6036</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N57" s="10">
         <v>7.7746200000000001E-2</v>
@@ -8170,7 +8174,7 @@
         <v>0.38335360000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:37">
       <c r="A58" s="13">
         <v>41</v>
       </c>
@@ -8181,22 +8185,22 @@
         <v>84</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H58" s="17">
         <v>35691</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J58" s="19">
         <v>1997</v>
@@ -8208,7 +8212,7 @@
         <v>137.09299999999999</v>
       </c>
       <c r="M58" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N58" s="19">
         <v>0.189141</v>
@@ -8243,7 +8247,7 @@
       <c r="AJ58" s="15"/>
       <c r="AK58" s="15"/>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:37">
       <c r="A59" s="7">
         <v>42</v>
       </c>
@@ -8254,20 +8258,20 @@
         <v>86</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H59" s="12">
         <v>39300</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J59" s="10">
         <v>2007</v>
@@ -8279,7 +8283,7 @@
         <v>131.19059999999999</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N59" s="10">
         <v>0.19073799999999999</v>
@@ -8354,7 +8358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:37">
       <c r="A60" s="7">
         <v>47</v>
       </c>
@@ -8365,22 +8369,22 @@
         <v>96</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H60" s="12">
         <v>34633</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J60" s="10">
         <v>1994</v>
@@ -8392,7 +8396,7 @@
         <v>138.06389999999999</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N60" s="10">
         <v>0.127943</v>
@@ -8467,7 +8471,7 @@
         <v>0.11374479999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:37">
       <c r="A61" s="7">
         <v>50</v>
       </c>
@@ -8478,22 +8482,22 @@
         <v>102</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H61" s="12">
         <v>38636</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J61" s="10">
         <v>2005</v>
@@ -8505,7 +8509,7 @@
         <v>139.48609999999999</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N61" s="10">
         <v>5.71674E-2</v>
@@ -8580,7 +8584,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:37">
       <c r="A62" s="7">
         <v>54</v>
       </c>
@@ -8591,22 +8595,22 @@
         <v>110</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H62" s="12">
         <v>35310</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J62" s="10">
         <v>1996</v>
@@ -8618,7 +8622,7 @@
         <v>138.3494</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N62" s="10">
         <v>8.0098500000000003E-2</v>
@@ -8693,7 +8697,7 @@
         <v>0.17824970000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:37">
       <c r="A63" s="7">
         <v>56</v>
       </c>
@@ -8704,22 +8708,22 @@
         <v>114</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H63" s="12">
         <v>38646</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J63" s="10">
         <v>2005</v>
@@ -8731,7 +8735,7 @@
         <v>139.4794</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N63" s="10">
         <v>0.23439599999999999</v>
@@ -8806,7 +8810,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:37">
       <c r="A64" s="7">
         <v>57</v>
       </c>
@@ -8817,22 +8821,22 @@
         <v>116</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H64" s="12">
         <v>35306</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J64" s="10">
         <v>1996</v>
@@ -8844,7 +8848,7 @@
         <v>139.56639999999999</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N64" s="10">
         <v>9.6052700000000005E-2</v>
@@ -8919,7 +8923,7 @@
         <v>0.149177</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:37">
       <c r="A65" s="7">
         <v>58</v>
       </c>
@@ -8930,20 +8934,20 @@
         <v>118</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H65" s="12">
         <v>39302</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J65" s="10">
         <v>2007</v>
@@ -8955,7 +8959,7 @@
         <v>131.6447</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N65" s="10">
         <v>0.26230300000000001</v>
@@ -9030,7 +9034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:37">
       <c r="A66" s="7">
         <v>59</v>
       </c>
@@ -9041,22 +9045,22 @@
         <v>120</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H66" s="12">
         <v>35307</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J66" s="10">
         <v>1996</v>
@@ -9068,7 +9072,7 @@
         <v>139.31110000000001</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N66" s="10">
         <v>7.8853900000000005E-2</v>
@@ -9143,7 +9147,7 @@
         <v>0.19846359999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:37">
       <c r="A67" s="7">
         <v>61</v>
       </c>
@@ -9154,22 +9158,22 @@
         <v>124</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H67" s="12">
         <v>35315</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J67" s="10">
         <v>1996</v>
@@ -9181,7 +9185,7 @@
         <v>133.62280000000001</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N67" s="10">
         <v>0.159332</v>
@@ -9256,7 +9260,7 @@
         <v>0.55263399999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:37">
       <c r="A68" s="7">
         <v>64</v>
       </c>
@@ -9267,22 +9271,22 @@
         <v>130</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H68" s="12">
         <v>35307</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J68" s="10">
         <v>1996</v>
@@ -9294,7 +9298,7 @@
         <v>139.38059999999999</v>
       </c>
       <c r="M68" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N68" s="10">
         <v>9.4200999999999993E-2</v>
@@ -9369,7 +9373,7 @@
         <v>0.2007234</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:37">
       <c r="A69" s="7">
         <v>73</v>
       </c>
@@ -9380,20 +9384,20 @@
         <v>148</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H69" s="12">
         <v>38282</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J69" s="10">
         <v>2004</v>
@@ -9405,7 +9409,7 @@
         <v>139.4794</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N69" s="10">
         <v>6.6603700000000002E-2</v>
@@ -9480,7 +9484,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:37">
       <c r="A70" s="13">
         <v>85</v>
       </c>
@@ -9491,20 +9495,20 @@
         <v>172</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E70" s="14"/>
       <c r="F70" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H70" s="18">
         <v>35694</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J70" s="19">
         <v>1997</v>
@@ -9516,7 +9520,7 @@
         <v>136.44</v>
       </c>
       <c r="M70" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N70" s="19">
         <v>6.7221900000000001E-2</v>
@@ -9551,7 +9555,7 @@
       <c r="AJ70" s="15"/>
       <c r="AK70" s="15"/>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:37">
       <c r="A71" s="7">
         <v>91</v>
       </c>
@@ -9562,20 +9566,20 @@
         <v>184</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H71" s="12">
         <v>39292</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J71" s="10">
         <v>2007</v>
@@ -9587,7 +9591,7 @@
         <v>130.08920000000001</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N71" s="10">
         <v>0.20119999999999999</v>
@@ -9662,7 +9666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:37">
       <c r="A72" s="7">
         <v>99</v>
       </c>
@@ -9673,20 +9677,20 @@
         <v>200</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H72" s="12">
         <v>39292</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J72" s="10">
         <v>2007</v>
@@ -9698,7 +9702,7 @@
         <v>130.1003</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N72" s="10">
         <v>0.16481399999999999</v>
@@ -9773,7 +9777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:37">
       <c r="A73" s="13">
         <v>106</v>
       </c>
@@ -9784,22 +9788,22 @@
         <v>214</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H73" s="17">
         <v>35743</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J73" s="19">
         <v>1997</v>
@@ -9811,7 +9815,7 @@
         <v>135.322</v>
       </c>
       <c r="M73" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N73" s="19">
         <v>3.4310100000000003E-2</v>
@@ -9846,7 +9850,7 @@
       <c r="AJ73" s="15"/>
       <c r="AK73" s="15"/>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:37">
       <c r="A74" s="7">
         <v>109</v>
       </c>
@@ -9857,22 +9861,22 @@
         <v>220</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H74" s="12">
         <v>37377</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J74" s="10">
         <v>2002</v>
@@ -9884,7 +9888,7 @@
         <v>134.18610000000001</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N74" s="10">
         <v>7.9902899999999999E-2</v>
@@ -9959,7 +9963,7 @@
         <v>0.58818950000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:37">
       <c r="A75" s="7">
         <v>110</v>
       </c>
@@ -9970,22 +9974,22 @@
         <v>222</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H75" s="12">
         <v>37377</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J75" s="10">
         <v>2002</v>
@@ -9997,7 +10001,7 @@
         <v>134.18610000000001</v>
       </c>
       <c r="M75" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N75" s="10">
         <v>8.1087199999999998E-2</v>
@@ -10072,7 +10076,7 @@
         <v>0.57903910000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:37">
       <c r="A76" s="7">
         <v>117</v>
       </c>
@@ -10083,20 +10087,20 @@
         <v>236</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H76" s="12">
         <v>39297</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J76" s="10">
         <v>2007</v>
@@ -10108,7 +10112,7 @@
         <v>130.19999999999999</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N76" s="10">
         <v>5.1300199999999997E-2</v>
@@ -10183,7 +10187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:37">
       <c r="A77" s="7">
         <v>81</v>
       </c>
@@ -10194,22 +10198,22 @@
         <v>164</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H77" s="12">
         <v>36426</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J77" s="10">
         <v>1999</v>
@@ -10221,7 +10225,7 @@
         <v>134.8108</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N77" s="10">
         <v>0.19192300000000001</v>
@@ -10296,7 +10300,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:37">
       <c r="A78" s="7">
         <v>1</v>
       </c>
@@ -10307,19 +10311,19 @@
         <v>4</v>
       </c>
       <c r="D78" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F78" s="8" t="s">
-        <v>245</v>
-      </c>
       <c r="G78" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H78" s="9">
         <v>38619</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J78" s="10">
         <v>2005</v>
@@ -10331,7 +10335,7 @@
         <v>118.65</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N78" s="10">
         <v>9.1314199999999998E-2</v>
@@ -10406,7 +10410,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:37">
       <c r="A79" s="7">
         <v>2</v>
       </c>
@@ -10417,19 +10421,19 @@
         <v>6</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H79" s="9">
         <v>38493</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J79" s="10">
         <v>2005</v>
@@ -10441,7 +10445,7 @@
         <v>125.2</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N79" s="10">
         <v>0.143791</v>
@@ -10516,7 +10520,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:37">
       <c r="A80" s="7">
         <v>3</v>
       </c>
@@ -10527,19 +10531,19 @@
         <v>8</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H80" s="9">
         <v>38260</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J80" s="10">
         <v>2004</v>
@@ -10551,7 +10555,7 @@
         <v>115.5697</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N80" s="10">
         <v>0.242891</v>
@@ -10626,7 +10630,7 @@
         <v>0.85244569999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:81">
       <c r="A81" s="7">
         <v>4</v>
       </c>
@@ -10637,19 +10641,19 @@
         <v>10</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H81" s="9">
         <v>38260</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J81" s="10">
         <v>2004</v>
@@ -10661,7 +10665,7 @@
         <v>115.5697</v>
       </c>
       <c r="M81" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N81" s="10">
         <v>2.3523599999999999E-2</v>
@@ -10736,7 +10740,7 @@
         <v>0.83854989999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:81">
       <c r="A82" s="7">
         <v>5</v>
       </c>
@@ -10747,19 +10751,19 @@
         <v>12</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H82" s="9">
         <v>33929</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J82" s="10">
         <v>1992</v>
@@ -10771,7 +10775,7 @@
         <v>114.61669999999999</v>
       </c>
       <c r="M82" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N82" s="10">
         <v>0.19570799999999999</v>
@@ -10846,7 +10850,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="83" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:81">
       <c r="A83" s="7">
         <v>12</v>
       </c>
@@ -10857,19 +10861,19 @@
         <v>26</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H83" s="9">
         <v>38619</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J83" s="10">
         <v>2005</v>
@@ -10881,7 +10885,7 @@
         <v>118.65</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N83" s="10">
         <v>1.7054400000000001E-2</v>
@@ -10956,7 +10960,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="84" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:81">
       <c r="A84" s="7">
         <v>30</v>
       </c>
@@ -10967,19 +10971,19 @@
         <v>62</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H84" s="9">
         <v>38185</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J84" s="10">
         <v>2004</v>
@@ -10991,7 +10995,7 @@
         <v>113.5333</v>
       </c>
       <c r="M84" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N84" s="10">
         <v>0.15370200000000001</v>
@@ -11066,7 +11070,7 @@
         <v>0.83948429999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:81">
       <c r="A85" s="7">
         <v>35</v>
       </c>
@@ -11077,22 +11081,22 @@
         <v>72</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H85" s="12">
         <v>39672</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J85" s="10">
         <v>2008</v>
@@ -11104,7 +11108,7 @@
         <v>126.0433</v>
       </c>
       <c r="M85" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N85" s="10">
         <v>2.7642099999999999E-2</v>
@@ -11179,7 +11183,7 @@
         <v>0.74344049999999995</v>
       </c>
     </row>
-    <row r="86" spans="1:81" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:81" s="15" customFormat="1">
       <c r="A86" s="7">
         <v>37</v>
       </c>
@@ -11190,22 +11194,22 @@
         <v>76</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H86" s="12">
         <v>39664</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J86" s="10">
         <v>2008</v>
@@ -11217,7 +11221,7 @@
         <v>127.44499999999999</v>
       </c>
       <c r="M86" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N86" s="10">
         <v>7.7256500000000006E-2</v>
@@ -11336,7 +11340,7 @@
       <c r="CB86" s="21"/>
       <c r="CC86" s="21"/>
     </row>
-    <row r="87" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:81">
       <c r="A87" s="7">
         <v>38</v>
       </c>
@@ -11347,22 +11351,22 @@
         <v>78</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H87" s="12">
         <v>39665</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J87" s="10">
         <v>2008</v>
@@ -11374,7 +11378,7 @@
         <v>128.0967</v>
       </c>
       <c r="M87" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N87" s="10">
         <v>0.13580500000000001</v>
@@ -11449,7 +11453,7 @@
         <v>0.98965069999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:81">
       <c r="A88" s="7">
         <v>39</v>
       </c>
@@ -11460,22 +11464,22 @@
         <v>80</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H88" s="12">
         <v>39665</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J88" s="10">
         <v>2008</v>
@@ -11487,7 +11491,7 @@
         <v>128.23330000000001</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N88" s="10">
         <v>0.20927000000000001</v>
@@ -11562,7 +11566,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="89" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:81">
       <c r="A89" s="7">
         <v>40</v>
       </c>
@@ -11573,22 +11577,22 @@
         <v>82</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H89" s="12">
         <v>40382</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J89" s="10">
         <v>2010</v>
@@ -11600,7 +11604,7 @@
         <v>126.1982</v>
       </c>
       <c r="M89" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N89" s="10">
         <v>7.2572200000000003E-2</v>
@@ -11675,7 +11679,7 @@
         <v>0.4028448</v>
       </c>
     </row>
-    <row r="90" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:81">
       <c r="A90" s="7">
         <v>43</v>
       </c>
@@ -11686,22 +11690,22 @@
         <v>88</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H90" s="12">
         <v>40385</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J90" s="10">
         <v>2010</v>
@@ -11713,7 +11717,7 @@
         <v>127.6862</v>
       </c>
       <c r="M90" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N90" s="10">
         <v>7.7543200000000007E-2</v>
@@ -11788,7 +11792,7 @@
         <v>0.31860769999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:81">
       <c r="A91" s="7">
         <v>48</v>
       </c>
@@ -11799,22 +11803,22 @@
         <v>98</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H91" s="12">
         <v>39671</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J91" s="10">
         <v>2008</v>
@@ -11826,7 +11830,7 @@
         <v>125.9081</v>
       </c>
       <c r="M91" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N91" s="10">
         <v>0.143314</v>
@@ -11901,7 +11905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:81">
       <c r="A92" s="7">
         <v>49</v>
       </c>
@@ -11912,22 +11916,22 @@
         <v>100</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H92" s="12">
         <v>39672</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J92" s="10">
         <v>2008</v>
@@ -11939,7 +11943,7 @@
         <v>126.0433</v>
       </c>
       <c r="M92" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N92" s="10">
         <v>0.15105399999999999</v>
@@ -12014,7 +12018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:81">
       <c r="A93" s="7">
         <v>51</v>
       </c>
@@ -12025,22 +12029,22 @@
         <v>104</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H93" s="12">
         <v>40383</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J93" s="10">
         <v>2010</v>
@@ -12052,7 +12056,7 @@
         <v>126.1069</v>
       </c>
       <c r="M93" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N93" s="10">
         <v>0.14583399999999999</v>
@@ -12127,7 +12131,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="94" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:81">
       <c r="A94" s="7">
         <v>52</v>
       </c>
@@ -12138,22 +12142,22 @@
         <v>106</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H94" s="12">
         <v>37389</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J94" s="10">
         <v>2002</v>
@@ -12165,7 +12169,7 @@
         <v>117.38890000000001</v>
       </c>
       <c r="M94" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N94" s="10">
         <v>0.14757799999999999</v>
@@ -12240,7 +12244,7 @@
         <v>8.1194749999999996E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:81">
       <c r="A95" s="7">
         <v>53</v>
       </c>
@@ -12251,22 +12255,22 @@
         <v>108</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H95" s="12">
         <v>39671</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J95" s="10">
         <v>2008</v>
@@ -12278,7 +12282,7 @@
         <v>125.9081</v>
       </c>
       <c r="M95" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N95" s="10">
         <v>7.3628100000000002E-2</v>
@@ -12353,7 +12357,7 @@
         <v>0.76799419999999996</v>
       </c>
     </row>
-    <row r="96" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:81">
       <c r="A96" s="7">
         <v>67</v>
       </c>
@@ -12364,22 +12368,22 @@
         <v>136</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H96" s="12">
         <v>40382</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J96" s="10">
         <v>2010</v>
@@ -12391,7 +12395,7 @@
         <v>126.1829</v>
       </c>
       <c r="M96" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N96" s="10">
         <v>5.4367800000000001E-2</v>
@@ -12466,7 +12470,7 @@
         <v>0.30214370000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:81">
       <c r="A97" s="7">
         <v>70</v>
       </c>
@@ -12477,22 +12481,22 @@
         <v>142</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H97" s="12">
         <v>38259</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J97" s="10">
         <v>2004</v>
@@ -12504,7 +12508,7 @@
         <v>123.62609999999999</v>
       </c>
       <c r="M97" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N97" s="10">
         <v>6.1848500000000001E-2</v>
@@ -12579,7 +12583,7 @@
         <v>0.42488930000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:81">
       <c r="A98" s="7">
         <v>72</v>
       </c>
@@ -12590,22 +12594,22 @@
         <v>146</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H98" s="12">
         <v>39661</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J98" s="10">
         <v>2008</v>
@@ -12617,7 +12621,7 @@
         <v>128.41720000000001</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N98" s="10">
         <v>2.5778300000000001E-2</v>
@@ -12692,7 +12696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:81">
       <c r="A99" s="7">
         <v>83</v>
       </c>
@@ -12703,22 +12707,22 @@
         <v>168</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H99" s="12">
         <v>39664</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J99" s="10">
         <v>2008</v>
@@ -12730,7 +12734,7 @@
         <v>127.36190000000001</v>
       </c>
       <c r="M99" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N99" s="10">
         <v>5.08884E-2</v>
@@ -12805,7 +12809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:81">
       <c r="A100" s="7">
         <v>86</v>
       </c>
@@ -12816,22 +12820,22 @@
         <v>174</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H100" s="12">
         <v>40380</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J100" s="10">
         <v>2010</v>
@@ -12843,7 +12847,7 @@
         <v>126.06010000000001</v>
       </c>
       <c r="M100" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N100" s="10">
         <v>8.3583000000000005E-2</v>
@@ -12918,7 +12922,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="101" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:81">
       <c r="A101" s="7">
         <v>88</v>
       </c>
@@ -12929,22 +12933,22 @@
         <v>178</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H101" s="12">
         <v>37380</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J101" s="10">
         <v>2002</v>
@@ -12956,7 +12960,7 @@
         <v>125.5128</v>
       </c>
       <c r="M101" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N101" s="10">
         <v>8.7968199999999996E-2</v>
@@ -13031,7 +13035,7 @@
         <v>0.73791720000000005</v>
       </c>
     </row>
-    <row r="102" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:81">
       <c r="A102" s="7">
         <v>89</v>
       </c>
@@ -13042,22 +13046,22 @@
         <v>180</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H102" s="12">
         <v>40387</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J102" s="10">
         <v>2010</v>
@@ -13069,7 +13073,7 @@
         <v>128.69450000000001</v>
       </c>
       <c r="M102" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N102" s="10">
         <v>5.1794199999999999E-2</v>
@@ -13144,7 +13148,7 @@
         <v>0.35966019999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:81">
       <c r="A103" s="7">
         <v>90</v>
       </c>
@@ -13155,22 +13159,22 @@
         <v>182</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H103" s="12">
         <v>40378</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J103" s="10">
         <v>2010</v>
@@ -13182,7 +13186,7 @@
         <v>127.9829</v>
       </c>
       <c r="M103" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N103" s="10">
         <v>3.2286599999999999E-2</v>
@@ -13257,7 +13261,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="104" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:81">
       <c r="A104" s="7">
         <v>92</v>
       </c>
@@ -13268,20 +13272,20 @@
         <v>186</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E104" s="11"/>
       <c r="F104" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H104" s="12">
         <v>40380</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J104" s="10">
         <v>2010</v>
@@ -13293,7 +13297,7 @@
         <v>126.06010000000001</v>
       </c>
       <c r="M104" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N104" s="10">
         <v>3.81448E-2</v>
@@ -13368,7 +13372,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="105" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:81">
       <c r="A105" s="7">
         <v>93</v>
       </c>
@@ -13379,22 +13383,22 @@
         <v>188</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H105" s="12">
         <v>40381</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J105" s="10">
         <v>2010</v>
@@ -13406,7 +13410,7 @@
         <v>126.0972</v>
       </c>
       <c r="M105" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N105" s="10">
         <v>5.2218300000000002E-2</v>
@@ -13481,7 +13485,7 @@
         <v>0.24368529999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:81">
       <c r="A106" s="7">
         <v>94</v>
       </c>
@@ -13492,22 +13496,22 @@
         <v>190</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H106" s="12">
         <v>40377</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J106" s="10">
         <v>2010</v>
@@ -13519,7 +13523,7 @@
         <v>127.9837</v>
       </c>
       <c r="M106" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N106" s="10">
         <v>8.1722699999999995E-2</v>
@@ -13594,7 +13598,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="107" spans="1:81" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:81" s="15" customFormat="1">
       <c r="A107" s="7">
         <v>95</v>
       </c>
@@ -13605,22 +13609,22 @@
         <v>192</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H107" s="12">
         <v>40381</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J107" s="10">
         <v>2010</v>
@@ -13632,7 +13636,7 @@
         <v>126.0343</v>
       </c>
       <c r="M107" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N107" s="10">
         <v>5.3887900000000002E-2</v>
@@ -13751,7 +13755,7 @@
       <c r="CB107" s="21"/>
       <c r="CC107" s="21"/>
     </row>
-    <row r="108" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:81">
       <c r="A108" s="7">
         <v>96</v>
       </c>
@@ -13762,22 +13766,22 @@
         <v>194</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H108" s="12">
         <v>40008</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J108" s="10">
         <v>2009</v>
@@ -13789,7 +13793,7 @@
         <v>134.19200000000001</v>
       </c>
       <c r="M108" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N108" s="10">
         <v>8.9360400000000006E-2</v>
@@ -13864,7 +13868,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="109" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:81">
       <c r="A109" s="7">
         <v>97</v>
       </c>
@@ -13875,22 +13879,22 @@
         <v>196</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H109" s="12">
         <v>40382</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J109" s="10">
         <v>2010</v>
@@ -13902,7 +13906,7 @@
         <v>126.1982</v>
       </c>
       <c r="M109" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N109" s="10">
         <v>6.9076799999999994E-2</v>
@@ -13977,7 +13981,7 @@
         <v>0.3860827</v>
       </c>
     </row>
-    <row r="110" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:81">
       <c r="A110" s="7">
         <v>98</v>
       </c>
@@ -13988,22 +13992,22 @@
         <v>198</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H110" s="12">
         <v>40383</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J110" s="10">
         <v>2010</v>
@@ -14015,7 +14019,7 @@
         <v>126.1069</v>
       </c>
       <c r="M110" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N110" s="10">
         <v>9.1396199999999997E-2</v>
@@ -14090,7 +14094,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="111" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:81">
       <c r="A111" s="7">
         <v>101</v>
       </c>
@@ -14101,22 +14105,22 @@
         <v>204</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H111" s="12">
         <v>40383</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J111" s="10">
         <v>2010</v>
@@ -14128,7 +14132,7 @@
         <v>126.133</v>
       </c>
       <c r="M111" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N111" s="10">
         <v>0.207705</v>
@@ -14203,7 +14207,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="112" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:81">
       <c r="A112" s="7">
         <v>102</v>
       </c>
@@ -14214,22 +14218,22 @@
         <v>206</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H112" s="12">
         <v>40385</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J112" s="10">
         <v>2010</v>
@@ -14241,7 +14245,7 @@
         <v>127.6862</v>
       </c>
       <c r="M112" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N112" s="10">
         <v>9.4542799999999996E-2</v>
@@ -14316,7 +14320,7 @@
         <v>0.32041799999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:37">
       <c r="A113" s="7">
         <v>104</v>
       </c>
@@ -14327,22 +14331,22 @@
         <v>210</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H113" s="12">
         <v>40386</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J113" s="10">
         <v>2010</v>
@@ -14354,7 +14358,7 @@
         <v>127.7076</v>
       </c>
       <c r="M113" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N113" s="10">
         <v>0.112982</v>
@@ -14429,7 +14433,7 @@
         <v>0.37202380000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:37">
       <c r="A114" s="7">
         <v>105</v>
       </c>
@@ -14440,22 +14444,22 @@
         <v>212</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H114" s="12">
         <v>40386</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J114" s="10">
         <v>2010</v>
@@ -14467,7 +14471,7 @@
         <v>127.7076</v>
       </c>
       <c r="M114" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N114" s="10">
         <v>8.4998599999999994E-2</v>
@@ -14542,7 +14546,7 @@
         <v>0.36886429999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:37">
       <c r="A115" s="7">
         <v>111</v>
       </c>
@@ -14553,22 +14557,22 @@
         <v>224</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H115" s="12">
         <v>39671</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J115" s="10">
         <v>2008</v>
@@ -14580,7 +14584,7 @@
         <v>126.1844</v>
       </c>
       <c r="M115" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N115" s="10">
         <v>3.3465799999999997E-2</v>
@@ -14655,7 +14659,7 @@
         <v>0.78313949999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:37">
       <c r="A116" s="7">
         <v>113</v>
       </c>
@@ -14666,22 +14670,22 @@
         <v>228</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H116" s="12">
         <v>37398</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J116" s="10">
         <v>2002</v>
@@ -14693,7 +14697,7 @@
         <v>113.83280000000001</v>
       </c>
       <c r="M116" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N116" s="10">
         <v>5.0781399999999997E-2</v>
@@ -14768,7 +14772,7 @@
         <v>0.85761779999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:37">
       <c r="A117" s="7">
         <v>114</v>
       </c>
@@ -14779,22 +14783,22 @@
         <v>230</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H117" s="12">
         <v>40388</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J117" s="10">
         <v>2010</v>
@@ -14806,7 +14810,7 @@
         <v>128.75899999999999</v>
       </c>
       <c r="M117" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N117" s="10">
         <v>1.47537E-2</v>
@@ -14881,7 +14885,7 @@
         <v>0.30791210000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:37">
       <c r="A118" s="7">
         <v>115</v>
       </c>
@@ -14892,19 +14896,19 @@
         <v>232</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H118" s="9">
         <v>38503</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J118" s="10">
         <v>2005</v>
@@ -14916,7 +14920,7 @@
         <v>125.2</v>
       </c>
       <c r="M118" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N118" s="10">
         <v>0.11070099999999999</v>
@@ -14991,7 +14995,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:37">
       <c r="A119" s="7">
         <v>116</v>
       </c>
@@ -15002,22 +15006,22 @@
         <v>234</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H119" s="12">
         <v>37383</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J119" s="10">
         <v>2002</v>
@@ -15029,7 +15033,7 @@
         <v>119.6961</v>
       </c>
       <c r="M119" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N119" s="10">
         <v>8.3013699999999996E-2</v>
@@ -15104,7 +15108,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:37">
       <c r="A120" s="7">
         <v>119</v>
       </c>
@@ -15115,22 +15119,22 @@
         <v>240</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H120" s="12">
         <v>37390</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J120" s="10">
         <v>2002</v>
@@ -15142,7 +15146,7 @@
         <v>117.6447</v>
       </c>
       <c r="M120" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N120" s="10">
         <v>7.83412E-2</v>
@@ -15218,7 +15222,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AK120">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK120">
     <sortCondition ref="M2:M120"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
